--- a/python_mssql/Med_table.xlsx
+++ b/python_mssql/Med_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d1063\University\中研院實習\4 資料庫\Excel匯入mssql with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d1063\University\中研院實習\6 GitHub協作\final_ver3_cloned\python_mssql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F789B4A-0E1E-4167-808F-B8284BA1BBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41398137-42AD-4A57-8B34-940B1B1F775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1360" yWindow="1140" windowWidth="10190" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllMed" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="553">
   <si>
     <t>甘草</t>
   </si>
@@ -1033,10 +1033,6 @@
     <t>3% Acetic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">310 (0 → 13)、365 (15 → 30)
-</t>
-  </si>
-  <si>
     <t>1.0 (0 → 13)、1.2 (15 → 30)</t>
   </si>
   <si>
@@ -2599,62 +2595,379 @@
 </t>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加味逍遙散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>本品應置於陰涼潮濕處。</t>
+  </si>
+  <si>
+    <t>順天堂藥廠提供之川芎指紋圖譜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality evaluation of Atractylodis macrocephalae rhizoma through fingerprint qualitative analysis and quantitative analysis of multi-components by single marker
+</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jpba.2022.114899</t>
+  </si>
+  <si>
+    <t>HPLC特徵圖譜結合含量測定的白芍及其炮製品的質量對比研究</t>
+  </si>
+  <si>
+    <t>http://cnki.sris.com.tw/kcms/detail/detail.aspx?recid=&amp;FileName=TRCW202201003&amp;DbName=CJFDLAST2022&amp;DbCode=CJFD&amp;uid=VlEzdWxVc2VPQkNXUVZHQ3pYUHI5QWhiTkZNUlMyOEk1RkhQQ0h4UjNkdWV6OUlG</t>
+  </si>
+  <si>
+    <t>Species classification and quality assessment of Chaihu (Radix Bupleuri) based on high-performance liquid chromatographic fingerprint and combined chemometrics methods</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12272-011-0613-2</t>
+  </si>
+  <si>
+    <t>Quantification of Chemical Groups and Quantitative HPLC Fingerprint of Poria cocos (Schw.) Wolf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/molecules27196383</t>
+  </si>
+  <si>
+    <t>一測多評法測定不同產地牡丹皮中5種有效成分的含量</t>
+  </si>
+  <si>
+    <t>http://cnki.sris.com.tw/kcms/detail/detail.aspx?recid=&amp;FileName=YPBZ202106016&amp;DbName=CJFDLAST2022&amp;DbCode=CJFD&amp;uid=V0hnc0dHcGZKalNoMWNHbXZySnpReC9uU08vWm9MVGoycWVuWTlLY2hDNmNCV3NM</t>
+  </si>
+  <si>
+    <t>Quality Control of Gardeniae Fructus by HPLC-PDA Fingerprint Coupled with Chemometric Methods</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/chromsci/bmv072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characteristic fingerprint based on gingerol derivative analysis for discrimination of ginger (Zingiber officinale) according to geographical origin using HPLC-DAD combined with chemometrics
+</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foodchem.2014.02.086</t>
+  </si>
+  <si>
+    <t>順天堂藥廠提供之薄荷指紋圖譜</t>
+  </si>
+  <si>
+    <t>順天堂藥廠提供之煨薑指紋圖譜</t>
+  </si>
+  <si>
+    <t>順天堂藥廠提供之炙甘草指紋圖譜</t>
+  </si>
+  <si>
+    <t>順天堂藥廠提供之加味逍遙散指紋圖譜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310 (0—13 min)、365 (15—30 min)
+</t>
+  </si>
+  <si>
+    <t>1.0 (0—13 min)、1.2 (15—30 min)</t>
+  </si>
+  <si>
+    <t>川芎樣品1</t>
+  </si>
+  <si>
+    <t>根莖</t>
+  </si>
+  <si>
+    <t>Ligusticum chuanxiong Hort.的乾燥根莖</t>
+  </si>
+  <si>
+    <t>白朮樣品1</t>
+  </si>
+  <si>
+    <t>AMR samples were ground to powder and sifted through a 40-mesh sieve. Powders (1 g) were extracted with 50 mL 70% (v/v) ethanol in a conical flask with a stopper by an ultrasonic cleaner (180 W, 40 kHz) for 30 min at room temperature. In order to make up for the weight loss during ultrasonic extraction, additional 70% (v/v) ethanol was added to the extract solution. Then AMR sample solution was filtered by 0.22 μm microporous filtering film before analysis and stored at 4ﾟC away from light.</t>
+  </si>
+  <si>
+    <t>Shimadzu LC-20</t>
+  </si>
+  <si>
+    <t>Shimadzu SPD-20A Ultraviolet detector</t>
+  </si>
+  <si>
+    <t>ZORBAX Eclipse Plus C18</t>
+  </si>
+  <si>
+    <t>218 (0—14 min)、277 (14—20 min)、218 (20—45 min)</t>
+  </si>
+  <si>
+    <t>Atractylodes macrocephala Koidz.的乾燥根莖</t>
+  </si>
+  <si>
+    <t>白芍樣品1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取白芍粉末 0.4 g，精確稱定，置具塞錐形瓶中，加稀乙醇 50 mL，超聲波震盪 30 min (功率 250 W，頻率 40 kHz)，冷卻後，用稀乙醇補足減失的重量，搖勻，過濾，取濾液，即得。 
+</t>
+  </si>
+  <si>
+    <t>GL Science</t>
+  </si>
+  <si>
+    <t>Intersustain C18</t>
+  </si>
+  <si>
+    <t>0.1% 磷酸水溶液</t>
+  </si>
+  <si>
+    <t>Paeonia lactiflora Pall.的去皮乾燥根</t>
+  </si>
+  <si>
+    <t>柴胡樣品1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8% NH3 in methanol 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NH3 in methanol (氨:甲醇)
+</t>
+  </si>
+  <si>
+    <t>An accurately weighed sample of 1.0 g of dried powdered was added into a flask with 25.0 mL of 8% NH3 in methanol. All samples were ultrasonicated for 45 min and the extracts were filtered, evaporated, then diluted to volume with methanol in a 10 mL volumetric flask. The solution (2 mL) was filtered through a 0.45 μm syringe filter prior to use. An aliquot of 20 μL was injected for HPLC analysis.</t>
+  </si>
+  <si>
+    <t>Waters 1525</t>
+  </si>
+  <si>
+    <t>Waters 2487 Dual λ absorbance detector</t>
+  </si>
+  <si>
+    <t>Diamonsil C18 column</t>
+  </si>
+  <si>
+    <t>0.02% trifluoroacetic acid in acetonitrile</t>
+  </si>
+  <si>
+    <t>三氟乙酸 (Trifluoroacetic acid)/Acetonitrile (乙腈)</t>
+  </si>
+  <si>
+    <t>0.02% trifluoroacetic acid in water</t>
+  </si>
+  <si>
+    <t>三氟乙酸 (Trifluoroacetic acid)/Water (水)</t>
+  </si>
+  <si>
+    <t>Bupleurum chinense DC.的乾燥根</t>
+  </si>
+  <si>
+    <t>茯苓樣品1</t>
+  </si>
+  <si>
+    <t>菌核</t>
+  </si>
+  <si>
+    <t>The aforementioned sample powders (5.0 g) were clearly labeled and put into a 150 mL conical flask with a stopper and bottle mouth rough surface, followed by extraction with 100 mL of 75% ethanol for 35 min in an ultrasonic bath. After cooling, the lost weight was supplemented with 75% ethanol. The total triterpenoid extract solutions were stored at 4 C.</t>
+  </si>
+  <si>
+    <t>Waters 2695</t>
+  </si>
+  <si>
+    <t>Supersil AQ–C18</t>
+  </si>
+  <si>
+    <t>0.1% Phosphoric acid</t>
+  </si>
+  <si>
+    <t>Poria cocos (Schwein.) F.A.Wolf)的乾燥菌核</t>
+  </si>
+  <si>
+    <t>牡丹皮樣品1</t>
+  </si>
+  <si>
+    <t>根皮</t>
+  </si>
+  <si>
+    <t>取牡丹皮粉末 (過三號篩) 1 g，精確稱定，置附塞之錐形瓶中，加甲醇 50 mL，超聲波震盪 (功率300 W，频率50 kHz) 30 min，冷卻後，用甲醇補足減失的重量 
+，摇匀，過濾，取濾液1 mL，置 10 mL 量瓶中，加甲醇稀釋至刻度，摇匀，即得。</t>
+  </si>
+  <si>
+    <t>Shimadzu LC-2030</t>
+  </si>
+  <si>
+    <t>Shimadzu LC-2030 Diode array detector</t>
+  </si>
+  <si>
+    <t>0.01% 磷酸水溶液</t>
+  </si>
+  <si>
+    <t>毛茛科Ranunculaceae植物牡丹Paeonia suffruticosa Andr.的乾燥根皮</t>
+  </si>
+  <si>
+    <t>梔子樣品1</t>
+  </si>
+  <si>
+    <t>果實</t>
+  </si>
+  <si>
+    <t>Methanol-Water (甲醇-水)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples (0.4 g) from each batch (n = 3) were extracted with methanol–water (1 : 1, v/v) (50 mL) for 30 min by ultrasonication (KQ-500E power: 500 W, frequency: 40 KHz, Kunshan, China). The extracts were filtered, then 20 mL of them were evaporated and the residues were dissolved in 5 mL methanol. Solutions were filtered through a 0.45 μm membrane before analysis. 
+</t>
+  </si>
+  <si>
+    <t>Waters 2998 Photodiode array detector</t>
+  </si>
+  <si>
+    <t>SinoChrom ODS-BP C18</t>
+  </si>
+  <si>
+    <t>0.1% Formic acid</t>
+  </si>
+  <si>
+    <t>Gardenia jasminoides J.Ellis的乾燥成熟果實</t>
+  </si>
+  <si>
+    <t>生薑樣品1</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Ginger rhizomes were washed to remove debris and dirt, peeled and then cut into small pieces. Single extraction for each ginger
+sample was performed by weighing 5.0 g of sample and then placing it in a flask together with 40 ml methanol. The mixture
+was ultrasonicated for 60 min and then allowed to stand for 60 min at room temperature to cool down. The extraction solution was subsequently filtered through a 0.45 μm nylon membrane filter into a HPLC vial prior to analysis.</t>
+  </si>
+  <si>
+    <t>Agilent 1100 G1312A</t>
+  </si>
+  <si>
+    <t>Agilent 1100 G1315A Diode array detector</t>
+  </si>
+  <si>
+    <t>Symmetry C18</t>
+  </si>
+  <si>
+    <r>
+      <t>Zingiber officinale</t>
+    </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>加味逍遙散</t>
+      <t xml:space="preserve"> Roscoe</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
+      <t>的新鮮根莖</t>
+    </r>
+  </si>
+  <si>
+    <t>薄荷樣品1</t>
+  </si>
+  <si>
+    <t>地上部</t>
+  </si>
+  <si>
+    <r>
+      <t>Mentha canadensi</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s L. (M. haplocalyx Briq.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DFKai-SB"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>測試標準品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加味逍遙散_測試樣品1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加味逍遙散_測試樣品2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本品應置於陰涼潮濕處。</t>
+      <t>的乾燥地上部分</t>
+    </r>
+  </si>
+  <si>
+    <t>煨薑樣品1</t>
+  </si>
+  <si>
+    <t>炙甘草樣品1</t>
+  </si>
+  <si>
+    <t>加味逍遙散樣品1</t>
+  </si>
+  <si>
+    <t>川芎的標準品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白朮内酯 Ⅲ等4種標準品
+</t>
+  </si>
+  <si>
+    <t>白朮内酯 Ⅲ等4種標準品</t>
+  </si>
+  <si>
+    <t>Stock standard solutions of Atractylenolide I, Atractylenolide II, Atractylenolide Ⅲ and Atractylone were prepared by dissolving appropriate amounts of reference substances into ethanol. Appropriate volume of each stock solution was taken to prepare mixed standard solution (MSS), in which the concentration of each component was 0.9996, 1.0584, 0.8722, 1.1074 mg/mL, respectively. Then MSS was diluted with ethanol to get a series of solutions with different concentration in order to establish the calibration curve. All the solutions were filtered by 0.22 µm microporous filtering film before analysis and stored at 4ﾟC away from light.</t>
+  </si>
+  <si>
+    <t>沒食子酸 (Gallic acid) 等6種標準品</t>
+  </si>
+  <si>
+    <t>取沒食子酸 (Gallic acid) 、兒茶素 (Catechin)、芍藥內酯苷 (Albiflorin)、芍藥苷 (Paeoniflorin)、1,2,3,4,6-五沒食子醯葡萄糖 (1,2,3,4,6-Pentagalloylglucose) 、苯甲醯芍藥苷 (benzoylpaeoniflorin) 對照標準品適量，加甲醇配製成每 1 mL含沒食子酸 (Gallic acid) 47.83 μg、兒茶素 (Catechin) 28.67 μg 、芍藥內酯苷 (Albiflorin) 128.18 μg 、芍藥苷 (Paeoniflorin) 164.32 μg 、 1,2,3,4,6-五沒食子醯葡萄糖 (1,2,3,4,6-Pentagalloylglucose) 30.63 μg、苯甲醯芍藥苷 (benzoylpaeoniflorin) 38.42 μg 的對照標準品溶液，即得。</t>
+  </si>
+  <si>
+    <t>柴胡的標準品</t>
+  </si>
+  <si>
+    <t>茯苓酸 B (Poricoic acid B) 等 8 種標準品</t>
+  </si>
+  <si>
+    <t>Oleanolic acid and D-glucose anhydrous of a certain quality were accurately weighed and dissolved in methanol and ultra-pure water, respectively, to prepare reserve solutions with concentrations of 0.1 mg/mL and 0.2 mg/mL, respectively. The prepared solutions were stored at 4 C.</t>
+  </si>
+  <si>
+    <t>沒食子酸 (Gallic acid) 等 5 種標準品</t>
+  </si>
+  <si>
+    <t>取沒食子酸 (Gallic acid)、兒茶素 (Catechin)、芍藥苷 (Paeoniflorin)、牡丹皮苷 C (Mudanpioside C)、丹皮酚(paeonol) 對照標準品適量，加甲醇配製成濃度為 407、177 
+、 775、 147、 816 μg/mL的對照標準品溶液。再分别精確秤取對照標準品溶液1 mL，置於同一25 mL 量瓶中，加甲醇配製成每1mL含沒食子酸 (Gallic acid) 16.28 μg 、兒茶素 (Catechin) 7.08 μg 、芍藥苷 (Paeoniflorin) 31.00 μg 、牡丹皮苷 C (Mudanpioside C) 5.88 μg 、丹皮酚 (paeonol) 32.64 μg 的對照標準品溶液，即得。</t>
+  </si>
+  <si>
+    <t>梔子的標準品</t>
+  </si>
+  <si>
+    <t>生薑的標準品</t>
+  </si>
+  <si>
+    <t>薄荷的標準品</t>
+  </si>
+  <si>
+    <t>煨薑的標準品</t>
+  </si>
+  <si>
+    <t>炙甘草的標準品</t>
+  </si>
+  <si>
+    <t>加味逍遙散的標準品</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2848,27 +3161,62 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Google Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2889,12 +3237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2902,6 +3244,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,7 +3288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2978,10 +3332,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2999,10 +3350,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3033,16 +3384,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3069,29 +3411,191 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3374,718 +3878,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="36"/>
-    <col min="2" max="2" width="15" style="36" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="36"/>
+    <col min="1" max="1" width="8.796875" style="33"/>
+    <col min="2" max="2" width="15" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="24">
+        <v>1</v>
+      </c>
+      <c r="N2" s="47">
+        <v>0</v>
+      </c>
+      <c r="O2" s="48">
+        <v>1</v>
+      </c>
+      <c r="P2" s="45"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="F3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="24">
+        <v>1</v>
+      </c>
+      <c r="N3" s="47">
+        <v>0</v>
+      </c>
+      <c r="O3" s="48">
+        <v>1</v>
+      </c>
+      <c r="P3" s="45"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="24">
+        <v>1</v>
+      </c>
+      <c r="N4" s="47">
+        <v>0</v>
+      </c>
+      <c r="O4" s="48">
+        <v>1</v>
+      </c>
+      <c r="P4" s="44"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="24">
+        <v>1</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0</v>
+      </c>
+      <c r="O5" s="48">
+        <v>1</v>
+      </c>
+      <c r="P5" s="44"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H6" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="24">
+        <v>1</v>
+      </c>
+      <c r="N6" s="47">
+        <v>0</v>
+      </c>
+      <c r="O6" s="48">
+        <v>1</v>
+      </c>
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47">
+        <v>0</v>
+      </c>
+      <c r="O7" s="48">
+        <v>1</v>
+      </c>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="24">
+        <v>1</v>
+      </c>
+      <c r="N8" s="47">
+        <v>0</v>
+      </c>
+      <c r="O8" s="48">
+        <v>1</v>
+      </c>
+      <c r="P8" s="42"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="24">
+        <v>1</v>
+      </c>
+      <c r="N9" s="47">
+        <v>0</v>
+      </c>
+      <c r="O9" s="48">
+        <v>1</v>
+      </c>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="24">
+        <v>1</v>
+      </c>
+      <c r="N10" s="47">
+        <v>0</v>
+      </c>
+      <c r="O10" s="48">
+        <v>1</v>
+      </c>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="46"/>
+      <c r="M11" s="24">
+        <v>1</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0</v>
+      </c>
+      <c r="O11" s="48">
+        <v>1</v>
+      </c>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="24">
+        <v>1</v>
+      </c>
+      <c r="N12" s="47">
+        <v>0</v>
+      </c>
+      <c r="O12" s="48">
+        <v>1</v>
+      </c>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="24">
+        <v>1</v>
+      </c>
+      <c r="N13" s="47">
+        <v>0</v>
+      </c>
+      <c r="O13" s="48">
+        <v>1</v>
+      </c>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="30">
+        <v>1</v>
+      </c>
+      <c r="N14" s="48">
+        <v>0</v>
+      </c>
+      <c r="O14" s="50">
+        <v>0</v>
+      </c>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="25">
-        <v>1</v>
-      </c>
-      <c r="N2" s="25">
-        <v>0</v>
-      </c>
-      <c r="O2" s="31">
-        <v>1</v>
-      </c>
-      <c r="P2" s="35"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="25">
-        <v>1</v>
-      </c>
-      <c r="N3" s="25">
-        <v>0</v>
-      </c>
-      <c r="O3" s="31">
-        <v>1</v>
-      </c>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="25">
-        <v>1</v>
-      </c>
-      <c r="N4" s="25">
-        <v>0</v>
-      </c>
-      <c r="O4" s="31">
-        <v>1</v>
-      </c>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="25">
-        <v>0</v>
-      </c>
-      <c r="O5" s="31">
-        <v>1</v>
-      </c>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="25">
-        <v>1</v>
-      </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="10" customHeight="1" thickBot="1">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25">
-        <v>1</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
-      <c r="O7" s="31">
-        <v>1</v>
-      </c>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" ht="275.5" thickBot="1">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="25">
-        <v>1</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="213" thickBot="1">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="25">
-        <v>1</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0</v>
-      </c>
-      <c r="O9" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="138" thickBot="1">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="25">
-        <v>1</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="163" thickBot="1">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="25">
-        <v>1</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="175.5" thickBot="1">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="25">
-        <v>1</v>
-      </c>
-      <c r="N12" s="25">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="175.5" thickBot="1">
-      <c r="A13" s="24">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="25">
-        <v>1</v>
-      </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
-      <c r="O13" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="189.5" thickBot="1">
-      <c r="A14" s="33">
-        <v>13</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="311" thickBot="1">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="20">
+      <c r="L15" s="6"/>
+      <c r="M15" s="30">
         <v>1</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="48">
         <v>0</v>
       </c>
-      <c r="O15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="41" thickBot="1">
-      <c r="A16" s="20">
+      <c r="O15" s="50">
+        <v>0</v>
+      </c>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="51">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="32" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="20">
         <v>0</v>
       </c>
@@ -4095,6 +4610,25 @@
       <c r="O16" s="20">
         <v>0</v>
       </c>
+      <c r="P16" s="42"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4104,10 +4638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9485DBF0-A381-4169-8792-448D55A80C15}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4138,7 +4672,7 @@
       <c r="C2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="93.5" thickBot="1">
       <c r="A3" s="3">
@@ -4156,8 +4690,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>379</v>
+      <c r="B4" s="34" t="s">
+        <v>378</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>44</v>
@@ -4180,8 +4714,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>380</v>
+      <c r="B6" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>46</v>
@@ -4204,7 +4738,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4264,8 +4798,8 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>381</v>
+      <c r="B13" s="35" t="s">
+        <v>380</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>52</v>
@@ -4276,7 +4810,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4288,7 +4822,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4336,8 +4870,8 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>382</v>
+      <c r="B19" s="36" t="s">
+        <v>381</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>58</v>
@@ -4348,8 +4882,8 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>383</v>
+      <c r="B20" s="36" t="s">
+        <v>382</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>59</v>
@@ -4360,8 +4894,8 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>384</v>
+      <c r="B21" s="36" t="s">
+        <v>383</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>180</v>
@@ -4372,34 +4906,173 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A23" s="51">
+        <v>22</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="84.5" thickBot="1">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="247" thickBot="1">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="109" thickBot="1">
+      <c r="A26" s="51">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="62.5" thickBot="1">
+      <c r="A27" s="51">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="247" thickBot="1">
+      <c r="A28" s="51">
+        <v>27</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="62.5" thickBot="1">
+      <c r="A29" s="51">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="124.5" thickBot="1">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.5" thickBot="1">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34.5" thickBot="1">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://link.springer.com/book/10.1007/978-3-319-06047-7" xr:uid="{D29063D3-C3D1-4067-92CD-8D374526A1F1}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5133360F-504C-4C56-A214-671588B603CD}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{849E8388-32AB-4C29-826A-E1E8CE67E622}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{EE9B0C52-99D8-4B30-8FDA-09DDC19959B2}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{8ACDA843-78EC-4B86-AC64-6F0624FC021A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{E6977AE7-19AC-40B0-A8E2-0D5B44C910E6}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{D7FA5A8C-9925-4222-8B00-B45B0C00E72D}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{23D1DA96-9678-444D-882E-19E0B3AD557C}"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://doi.org/10.1080/14786419.2011.631134" xr:uid="{421A6FDF-868B-46EB-A675-04FF77A28065}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{A0A6CBE9-7DEF-4738-9F01-099CAB297109}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{23F68174-6296-4692-A095-3FE1D7ABEED7}"/>
-    <hyperlink ref="C16" r:id="rId12" display="https://link.springer.com/book/10.1007/978-3-7091-0763-8" xr:uid="{44AE6B27-BCCB-46C2-99E3-35A6B37BE15E}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{A6061B20-7B2C-4AE0-A1B8-0443590A9449}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{933E9CD3-AB85-4188-B1B4-BD79F73A51A9}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{434D4B3B-CB0B-43F6-83BA-3F410B23D859}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{AADAF272-5132-4101-8717-860D4AD71FE8}"/>
-    <hyperlink ref="C21" r:id="rId17" display="http://cnki.sris.com.tw/kcms/detail/detail.aspx?QueryID=2&amp;CurRec=179&amp;DbCode=CJFD&amp;dbname=CJFDLAST2022&amp;filename=ZCYO202220006&amp;uid=VzFXK2ppdkMxbnhHSmFnOEJuSkVwVDlMVmVxN1N0ZzM0MDZMN2MwWnVGZ1ZvalNp" xr:uid="{A830ADBF-3E23-4777-AEED-99794AF249D2}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://link.springer.com/book/10.1007/978-3-319-06047-7" xr:uid="{1DD9FFEA-A814-4AD0-B8B6-92C8D1AF08E5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E2358C1C-D90A-4D3A-9D00-6A85CAB455F5}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{BE917D44-B61D-4A67-8ACB-9539B627BFDA}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0E7D91B9-8B49-422F-849C-16A29B30F1E8}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{2119A721-58D9-4666-9504-1EAB46AEAD10}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{748AECB5-582C-438A-B876-E8AED4ADEFA0}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{55D89D14-650A-460D-B325-4386D94291BA}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{A33F10C6-8DBA-42EB-A2AD-D5BE47547333}"/>
+    <hyperlink ref="C12" r:id="rId9" display="https://doi.org/10.1080/14786419.2011.631134" xr:uid="{77DE0EAF-8644-4A86-BC98-72CFFE35FF4B}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{6C549BB7-6894-4D09-936C-A7DFB1516669}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{FBDBD28E-2D6E-43C3-BBA1-E9C09EAE3126}"/>
+    <hyperlink ref="C16" r:id="rId12" display="https://link.springer.com/book/10.1007/978-3-7091-0763-8" xr:uid="{DC779C63-021E-4E2F-94B7-A2248082A915}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{65DC4FDC-B92F-486D-8D9E-7775249A6410}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{084ADD21-9668-4AB5-B928-57D98704197A}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{6B7753F0-D3AF-4692-9717-FCD99974B0DB}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{34868B93-C057-469C-9AB9-FE6F4170968C}"/>
+    <hyperlink ref="C21" r:id="rId17" display="http://cnki.sris.com.tw/kcms/detail/detail.aspx?QueryID=2&amp;CurRec=179&amp;DbCode=CJFD&amp;dbname=CJFDLAST2022&amp;filename=ZCYO202220006&amp;uid=VzFXK2ppdkMxbnhHSmFnOEJuSkVwVDlMVmVxN1N0ZzM0MDZMN2MwWnVGZ1ZvalNp" xr:uid="{AF13AF73-3A56-4678-86AE-C91326A62E41}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{4F45037B-BE59-43F7-9E32-FB99C3387F82}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{A6D32861-76AC-4C68-8F96-ACF89370E5BB}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{5FCED2B5-E898-4C72-96C7-B72332C87900}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{A9A26F74-952C-47D1-92DD-D2F0F311E653}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{0BAC10A0-694F-4A5D-A135-10FBC06AA406}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{87256500-C662-4AE5-99F3-8BE6DF26DC41}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{8E5A5A2A-E9AB-4F1B-9202-7D7FD6DF0D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4407,120 +5080,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13006E8D-24DF-405A-9FA6-BEAC910259A5}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="26" width="20.69921875" style="23" customWidth="1"/>
-    <col min="27" max="27" width="16.3984375" style="23" customWidth="1"/>
-    <col min="28" max="28" width="15.5" style="23" customWidth="1"/>
-    <col min="29" max="16384" width="8.796875" style="23"/>
+    <col min="1" max="26" width="20.69921875" style="22" customWidth="1"/>
+    <col min="27" max="27" width="16.3984375" style="22" customWidth="1"/>
+    <col min="28" max="28" width="15.5" style="22" customWidth="1"/>
+    <col min="29" max="16384" width="8.796875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="46" t="s">
+      <c r="L1" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="46" t="s">
+      <c r="W1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="W1" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="46" t="s">
+      <c r="Y1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="Y1" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA1" s="46" t="s">
+      <c r="AA1" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AB1" s="46" t="s">
+      <c r="AB1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="46" t="s">
+      <c r="AD1" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="186.5" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="AE1" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
       <c r="C2" s="13">
@@ -4535,14 +5208,14 @@
       <c r="F2" s="3">
         <v>101001001</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>24</v>
@@ -4553,8 +5226,8 @@
       <c r="L2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>387</v>
+      <c r="M2" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>183</v>
@@ -4584,13 +5257,13 @@
         <v>187</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>24</v>
@@ -4607,15 +5280,15 @@
       <c r="AD2" s="3">
         <v>5</v>
       </c>
-      <c r="AE2" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="372.5" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="AE2" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
       <c r="C3" s="13">
@@ -4630,14 +5303,14 @@
       <c r="F3" s="3">
         <v>101002002</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>391</v>
+      <c r="G3" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>24</v>
@@ -4679,13 +5352,13 @@
         <v>192</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>24</v>
@@ -4702,15 +5375,15 @@
       <c r="AD3" s="3">
         <v>20</v>
       </c>
-      <c r="AE3" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="202" thickBot="1">
-      <c r="A4" s="38" t="s">
+      <c r="AE3" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <v>1</v>
       </c>
       <c r="C4" s="13">
@@ -4725,26 +5398,26 @@
       <c r="F4" s="3">
         <v>101003003</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>193</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>394</v>
+      <c r="M4" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>86</v>
@@ -4770,17 +5443,17 @@
       <c r="U4" s="3">
         <v>40</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="V4" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>24</v>
@@ -4801,11 +5474,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="202" thickBot="1">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
       <c r="C5" s="13">
@@ -4820,26 +5493,26 @@
       <c r="F5" s="3">
         <v>101003004</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>394</v>
+      <c r="M5" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>194</v>
@@ -4865,17 +5538,17 @@
       <c r="U5" s="3">
         <v>40</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="V5" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>24</v>
@@ -4896,11 +5569,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="202" thickBot="1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="34">
         <v>1</v>
       </c>
       <c r="C6" s="13">
@@ -4915,26 +5588,26 @@
       <c r="F6" s="3">
         <v>101003005</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="34" t="s">
         <v>195</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>394</v>
+      <c r="M6" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>86</v>
@@ -4960,17 +5633,17 @@
       <c r="U6" s="3">
         <v>40</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V6" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>24</v>
@@ -4991,11 +5664,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="202" thickBot="1">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="34">
         <v>1</v>
       </c>
       <c r="C7" s="13">
@@ -5010,26 +5683,26 @@
       <c r="F7" s="3">
         <v>101003006</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="34" t="s">
         <v>196</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>398</v>
+      <c r="M7" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>86</v>
@@ -5055,17 +5728,17 @@
       <c r="U7" s="3">
         <v>40</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>24</v>
@@ -5086,11 +5759,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="202" thickBot="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
       <c r="C8" s="13">
@@ -5105,26 +5778,26 @@
       <c r="F8" s="3">
         <v>101003007</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="34" t="s">
         <v>197</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>399</v>
+      <c r="M8" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>86</v>
@@ -5150,17 +5823,17 @@
       <c r="U8" s="3">
         <v>40</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>24</v>
@@ -5181,11 +5854,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="202" thickBot="1">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="34">
         <v>1</v>
       </c>
       <c r="C9" s="13">
@@ -5200,26 +5873,26 @@
       <c r="F9" s="3">
         <v>101003008</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="34" t="s">
         <v>198</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>400</v>
+      <c r="M9" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>86</v>
@@ -5245,17 +5918,17 @@
       <c r="U9" s="3">
         <v>40</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V9" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>24</v>
@@ -5276,8 +5949,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="326" thickBot="1">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3">
@@ -5295,14 +5968,14 @@
       <c r="F10" s="3">
         <v>101004009</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="34" t="s">
         <v>199</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>24</v>
@@ -5313,7 +5986,7 @@
       <c r="L10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="8" t="s">
         <v>202</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -5344,13 +6017,13 @@
         <v>203</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>24</v>
@@ -5371,8 +6044,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="248.5" thickBot="1">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3">
@@ -5390,14 +6063,14 @@
       <c r="F11" s="3">
         <v>101005010</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="34" t="s">
         <v>204</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>24</v>
@@ -5408,8 +6081,8 @@
       <c r="L11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>402</v>
+      <c r="M11" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>100</v>
@@ -5435,17 +6108,17 @@
       <c r="U11" s="3">
         <v>30</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="X11" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="X11" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="Y11" s="47" t="s">
-        <v>403</v>
+      <c r="Y11" s="59" t="s">
+        <v>402</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>24</v>
@@ -5466,8 +6139,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="279.5" thickBot="1">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3">
@@ -5485,14 +6158,14 @@
       <c r="F12" s="3">
         <v>101006011</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="34" t="s">
         <v>207</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>24</v>
@@ -5503,7 +6176,7 @@
       <c r="L12" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="8" t="s">
         <v>104</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -5515,7 +6188,7 @@
       <c r="P12" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="Q12" s="60" t="s">
         <v>108</v>
       </c>
       <c r="R12" s="3">
@@ -5534,13 +6207,13 @@
         <v>83</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>208</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>24</v>
@@ -5548,21 +6221,21 @@
       <c r="AA12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB12" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC12" s="41" t="s">
-        <v>210</v>
+      <c r="AB12" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC12" s="37" t="s">
+        <v>472</v>
       </c>
       <c r="AD12" s="3">
         <v>10</v>
       </c>
-      <c r="AE12" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="155.5" thickBot="1">
-      <c r="A13" s="38" t="s">
+      <c r="AE12" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3">
@@ -5580,38 +6253,38 @@
       <c r="F13" s="3">
         <v>101007012</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="Q13" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="R13" s="3">
         <v>250</v>
@@ -5626,22 +6299,22 @@
         <v>35</v>
       </c>
       <c r="V13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W13" s="62" t="s">
         <v>218</v>
-      </c>
-      <c r="W13" s="48" t="s">
-        <v>219</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB13" s="3">
         <v>250</v>
@@ -5652,12 +6325,12 @@
       <c r="AD13" s="3">
         <v>20</v>
       </c>
-      <c r="AE13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="279.5" thickBot="1">
-      <c r="A14" s="38" t="s">
+      <c r="AE13" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="3">
@@ -5675,38 +6348,38 @@
       <c r="F14" s="3">
         <v>102008013</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>24</v>
@@ -5721,16 +6394,16 @@
         <v>24</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>24</v>
@@ -5747,12 +6420,12 @@
       <c r="AD14" s="3">
         <v>10</v>
       </c>
-      <c r="AE14" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="233" thickBot="1">
-      <c r="A15" s="38" t="s">
+      <c r="AE14" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="3">
@@ -5770,32 +6443,32 @@
       <c r="F15" s="3">
         <v>102009014</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>114</v>
@@ -5816,16 +6489,16 @@
         <v>30</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>24</v>
@@ -5842,12 +6515,12 @@
       <c r="AD15" s="3">
         <v>10</v>
       </c>
-      <c r="AE15" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="409.6" thickBot="1">
-      <c r="A16" s="38" t="s">
+      <c r="AE15" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="3">
@@ -5865,26 +6538,26 @@
       <c r="F16" s="3">
         <v>102010015</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>236</v>
+      <c r="M16" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>118</v>
@@ -5914,13 +6587,13 @@
         <v>83</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>24</v>
@@ -5937,12 +6610,12 @@
       <c r="AD16" s="3">
         <v>10</v>
       </c>
-      <c r="AE16" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="409.6" thickBot="1">
-      <c r="A17" s="38" t="s">
+      <c r="AE16" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="3">
@@ -5960,29 +6633,29 @@
       <c r="F17" s="3">
         <v>102010016</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>234</v>
+      <c r="G17" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>119</v>
@@ -6009,13 +6682,13 @@
         <v>83</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>24</v>
@@ -6032,12 +6705,12 @@
       <c r="AD17" s="3">
         <v>10</v>
       </c>
-      <c r="AE17" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="409.6" thickBot="1">
-      <c r="A18" s="38" t="s">
+      <c r="AE17" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="3">
@@ -6055,29 +6728,29 @@
       <c r="F18" s="3">
         <v>102010017</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>234</v>
+      <c r="G18" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>119</v>
@@ -6104,13 +6777,13 @@
         <v>83</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>24</v>
@@ -6127,12 +6800,12 @@
       <c r="AD18" s="3">
         <v>10</v>
       </c>
-      <c r="AE18" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="124.5" thickBot="1">
-      <c r="A19" s="38" t="s">
+      <c r="AE18" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="3">
@@ -6150,26 +6823,26 @@
       <c r="F19" s="3">
         <v>102011018</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>243</v>
+      <c r="G19" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>245</v>
+      <c r="M19" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>123</v>
@@ -6196,16 +6869,16 @@
         <v>35</v>
       </c>
       <c r="V19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="Y19" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z19" s="3" t="s">
         <v>24</v>
@@ -6222,12 +6895,12 @@
       <c r="AD19" s="3">
         <v>10</v>
       </c>
-      <c r="AE19" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="202" thickBot="1">
-      <c r="A20" s="38" t="s">
+      <c r="AE19" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="3">
@@ -6245,14 +6918,14 @@
       <c r="F20" s="3">
         <v>102012019</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>248</v>
+      <c r="G20" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>24</v>
@@ -6263,8 +6936,8 @@
       <c r="L20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>413</v>
+      <c r="M20" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>128</v>
@@ -6291,16 +6964,16 @@
         <v>30</v>
       </c>
       <c r="V20" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="X20" s="38" t="s">
+      <c r="X20" s="34" t="s">
         <v>90</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>24</v>
@@ -6317,12 +6990,12 @@
       <c r="AD20" s="3">
         <v>10</v>
       </c>
-      <c r="AE20" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="217.5" thickBot="1">
-      <c r="A21" s="38" t="s">
+      <c r="AE20" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A21" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="3">
@@ -6340,26 +7013,26 @@
       <c r="F21" s="3">
         <v>102013020</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>416</v>
+      <c r="M21" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>86</v>
@@ -6389,13 +7062,13 @@
         <v>83</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y21" s="38" t="s">
-        <v>403</v>
+        <v>245</v>
+      </c>
+      <c r="Y21" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>24</v>
@@ -6412,15 +7085,15 @@
       <c r="AD21" s="3">
         <v>10</v>
       </c>
-      <c r="AE21" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="155.5" thickBot="1">
-      <c r="A22" s="38" t="s">
+      <c r="AE21" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>2</v>
       </c>
       <c r="C22" s="3">
@@ -6435,38 +7108,38 @@
       <c r="F22" s="3">
         <v>102014021</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>252</v>
+      <c r="G22" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="R22" s="3">
         <v>250</v>
@@ -6481,22 +7154,22 @@
         <v>35</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="W22" s="38" t="s">
-        <v>253</v>
+        <v>217</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB22" s="3">
         <v>280</v>
@@ -6507,15 +7180,15 @@
       <c r="AD22" s="3">
         <v>20</v>
       </c>
-      <c r="AE22" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="202" thickBot="1">
-      <c r="A23" s="38" t="s">
+      <c r="AE22" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>3</v>
       </c>
       <c r="C23" s="13">
@@ -6530,38 +7203,38 @@
       <c r="F23" s="3">
         <v>103015022</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="18" t="s">
+      <c r="L23" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="Q23" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>260</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>24</v>
@@ -6576,16 +7249,16 @@
         <v>24</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>24</v>
@@ -6602,15 +7275,15 @@
       <c r="AD23" s="3">
         <v>10</v>
       </c>
-      <c r="AE23" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="202" thickBot="1">
-      <c r="A24" s="38" t="s">
+      <c r="AE23" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>3</v>
       </c>
       <c r="C24" s="3">
@@ -6625,26 +7298,26 @@
       <c r="F24" s="3">
         <v>103016023</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>86</v>
@@ -6677,10 +7350,10 @@
         <v>182</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>24</v>
@@ -6697,15 +7370,15 @@
       <c r="AD24" s="3">
         <v>2</v>
       </c>
-      <c r="AE24" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="409.6" thickBot="1">
-      <c r="A25" s="38" t="s">
+      <c r="AE24" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>3</v>
       </c>
       <c r="C25" s="13">
@@ -6720,26 +7393,26 @@
       <c r="F25" s="3">
         <v>103017024</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>422</v>
+      <c r="M25" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>146</v>
@@ -6747,10 +7420,10 @@
       <c r="O25" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="8" t="s">
         <v>149</v>
       </c>
       <c r="R25" s="3">
@@ -6766,13 +7439,13 @@
         <v>24</v>
       </c>
       <c r="V25" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="X25" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="Y25" s="14" t="s">
         <v>150</v>
@@ -6792,15 +7465,15 @@
       <c r="AD25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AE25" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="171" thickBot="1">
-      <c r="A26" s="38" t="s">
+      <c r="AE25" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>3</v>
       </c>
       <c r="C26" s="3">
@@ -6815,26 +7488,26 @@
       <c r="F26" s="3">
         <v>103018025</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>271</v>
+      <c r="G26" s="34" t="s">
+        <v>270</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>424</v>
+      <c r="K26" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>86</v>
@@ -6860,17 +7533,17 @@
       <c r="U26" s="3">
         <v>25</v>
       </c>
-      <c r="V26" s="38" t="s">
+      <c r="V26" s="34" t="s">
         <v>90</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>24</v>
@@ -6887,15 +7560,15 @@
       <c r="AD26" s="3">
         <v>10</v>
       </c>
-      <c r="AE26" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="186.5" thickBot="1">
-      <c r="A27" s="38" t="s">
+      <c r="AE26" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>3</v>
       </c>
       <c r="C27" s="13">
@@ -6910,14 +7583,14 @@
       <c r="F27" s="3">
         <v>103019026</v>
       </c>
-      <c r="G27" s="38" t="s">
-        <v>272</v>
+      <c r="G27" s="34" t="s">
+        <v>271</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>24</v>
@@ -6928,19 +7601,19 @@
       <c r="L27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>426</v>
+      <c r="M27" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="O27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q27" s="60" t="s">
         <v>98</v>
       </c>
       <c r="R27" s="3">
@@ -6952,20 +7625,20 @@
       <c r="T27" s="3">
         <v>5</v>
       </c>
-      <c r="U27" s="42">
+      <c r="U27" s="38">
         <v>30</v>
       </c>
-      <c r="V27" s="38" t="s">
-        <v>273</v>
+      <c r="V27" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="X27" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="X27" s="34" t="s">
         <v>90</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>24</v>
@@ -6982,15 +7655,15 @@
       <c r="AD27" s="3">
         <v>10</v>
       </c>
-      <c r="AE27" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="217.5" thickBot="1">
-      <c r="A28" s="38" t="s">
+      <c r="AE27" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>3</v>
       </c>
       <c r="C28" s="3">
@@ -7005,26 +7678,26 @@
       <c r="F28" s="3">
         <v>103020027</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="L28" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>100</v>
@@ -7050,17 +7723,17 @@
       <c r="U28" s="3">
         <v>40</v>
       </c>
-      <c r="V28" s="38" t="s">
+      <c r="V28" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="W28" s="14" t="s">
+      <c r="W28" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y28" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="X28" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="Z28" s="3" t="s">
         <v>24</v>
@@ -7077,15 +7750,15 @@
       <c r="AD28" s="3">
         <v>10</v>
       </c>
-      <c r="AE28" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="155.5" thickBot="1">
-      <c r="A29" s="38" t="s">
+      <c r="AE28" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>3</v>
       </c>
       <c r="C29" s="13">
@@ -7100,38 +7773,38 @@
       <c r="F29" s="3">
         <v>103021028</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>276</v>
+      <c r="G29" s="34" t="s">
+        <v>275</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>182</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R29" s="3">
         <v>320</v>
@@ -7146,41 +7819,41 @@
         <v>35</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB29" s="3">
         <v>320</v>
       </c>
-      <c r="AC29" s="38">
+      <c r="AC29" s="34">
         <v>1</v>
       </c>
-      <c r="AD29" s="38">
+      <c r="AD29" s="3">
         <v>20</v>
       </c>
-      <c r="AE29" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="186.5" thickBot="1">
-      <c r="A30" s="38" t="s">
+      <c r="AE29" s="63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="34">
         <v>1</v>
       </c>
       <c r="C30" s="3">
@@ -7195,14 +7868,14 @@
       <c r="F30" s="3">
         <v>101001029</v>
       </c>
-      <c r="G30" s="43" t="s">
-        <v>430</v>
+      <c r="G30" s="39" t="s">
+        <v>429</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>24</v>
@@ -7213,8 +7886,8 @@
       <c r="L30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>387</v>
+      <c r="M30" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>183</v>
@@ -7243,14 +7916,14 @@
       <c r="V30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="W30" s="14" t="s">
-        <v>388</v>
+      <c r="W30" s="64" t="s">
+        <v>387</v>
       </c>
       <c r="X30" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z30" s="3" t="s">
         <v>24</v>
@@ -7267,12 +7940,12 @@
       <c r="AD30" s="3">
         <v>5</v>
       </c>
-      <c r="AE30" s="18" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="186.5" thickBot="1">
-      <c r="A31" s="38" t="s">
+      <c r="AE30" s="65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="3">
@@ -7290,14 +7963,14 @@
       <c r="F31" s="3">
         <v>101001030</v>
       </c>
-      <c r="G31" s="43" t="s">
-        <v>432</v>
+      <c r="G31" s="39" t="s">
+        <v>431</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>24</v>
@@ -7308,8 +7981,8 @@
       <c r="L31" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>387</v>
+      <c r="M31" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>183</v>
@@ -7338,14 +8011,14 @@
       <c r="V31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="W31" s="14" t="s">
-        <v>388</v>
+      <c r="W31" s="64" t="s">
+        <v>387</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>83</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z31" s="3" t="s">
         <v>24</v>
@@ -7362,200 +8035,1163 @@
       <c r="AD31" s="3">
         <v>5</v>
       </c>
-      <c r="AE31" s="18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="16" thickBot="1">
-      <c r="A32" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="B32" s="46">
+      <c r="AE31" s="65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="67">
+        <v>4</v>
+      </c>
+      <c r="C32" s="67">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21</v>
+      </c>
+      <c r="F32" s="3">
+        <v>104022031</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R32" s="3">
+        <v>250</v>
+      </c>
+      <c r="S32" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T32" s="3">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
+        <v>35</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>280</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE32" s="69" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="70">
+        <v>23</v>
+      </c>
+      <c r="D33" s="70">
+        <v>32</v>
+      </c>
+      <c r="E33" s="70">
+        <v>22</v>
+      </c>
+      <c r="F33" s="70">
+        <v>105023032</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>476</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="R33" s="3">
+        <v>250</v>
+      </c>
+      <c r="S33" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T33" s="3">
+        <v>5</v>
+      </c>
+      <c r="U33" s="70">
+        <v>20</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="70">
+        <v>20</v>
+      </c>
+      <c r="AE33" s="72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A34" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>24</v>
+      </c>
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3">
+        <v>23</v>
+      </c>
+      <c r="F34" s="3">
+        <v>106024033</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R34" s="3">
+        <v>250</v>
+      </c>
+      <c r="S34" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T34" s="3">
+        <v>5</v>
+      </c>
+      <c r="U34" s="3">
+        <v>30</v>
+      </c>
+      <c r="V34" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>230</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE34" s="73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" s="3">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3">
+        <v>24</v>
+      </c>
+      <c r="F35" s="3">
+        <v>107025034</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="R35" s="3">
+        <v>250</v>
+      </c>
+      <c r="S35" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T35" s="3">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
+        <v>25</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="W35" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y35" s="74" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB35" s="34">
+        <v>203</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="3">
+        <v>8</v>
+      </c>
+      <c r="C36" s="70">
+        <v>26</v>
+      </c>
+      <c r="D36" s="70">
+        <v>35</v>
+      </c>
+      <c r="E36" s="70">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3">
+        <v>108026035</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="R36" s="3">
+        <v>250</v>
+      </c>
+      <c r="S36" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T36" s="3">
+        <v>5</v>
+      </c>
+      <c r="U36" s="3">
+        <v>30</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="W36" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>243</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3">
+        <v>26</v>
+      </c>
+      <c r="F37" s="3">
+        <v>109027036</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37" s="69" t="s">
+        <v>510</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" s="3">
+        <v>250</v>
+      </c>
+      <c r="S37" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T37" s="3">
+        <v>5</v>
+      </c>
+      <c r="U37" s="18">
+        <v>30</v>
+      </c>
+      <c r="V37" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="X37" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB37" s="18">
+        <v>250</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD37" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE37" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" s="3">
+        <v>10</v>
+      </c>
+      <c r="C38" s="70">
+        <v>28</v>
+      </c>
+      <c r="D38" s="70">
+        <v>37</v>
+      </c>
+      <c r="E38" s="70">
+        <v>27</v>
+      </c>
+      <c r="F38" s="3">
+        <v>110028037</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>515</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M38" s="77" t="s">
+        <v>518</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="R38" s="3">
+        <v>250</v>
+      </c>
+      <c r="S38" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T38" s="3">
+        <v>5</v>
+      </c>
+      <c r="U38" s="3">
+        <v>30</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>254</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B39" s="3">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>29</v>
+      </c>
+      <c r="D39" s="3">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3">
+        <v>28</v>
+      </c>
+      <c r="F39" s="3">
+        <v>111029038</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="R39" s="34">
+        <v>150</v>
+      </c>
+      <c r="S39" s="34">
+        <v>3.9</v>
+      </c>
+      <c r="T39" s="34">
+        <v>5</v>
+      </c>
+      <c r="U39" s="3">
+        <v>27</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB39" s="34">
+        <v>230</v>
+      </c>
+      <c r="AC39" s="34">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" s="79">
+        <v>12</v>
+      </c>
+      <c r="C40" s="80">
+        <v>30</v>
+      </c>
+      <c r="D40" s="80">
+        <v>39</v>
+      </c>
+      <c r="E40" s="80">
+        <v>29</v>
+      </c>
+      <c r="F40" s="3">
+        <v>112030039</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>530</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R40" s="3">
+        <v>250</v>
+      </c>
+      <c r="S40" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T40" s="3">
+        <v>5</v>
+      </c>
+      <c r="U40" s="3">
+        <v>35</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W40" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>280</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE40" s="81" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" s="79">
+        <v>13</v>
+      </c>
+      <c r="C41" s="80">
+        <v>31</v>
+      </c>
+      <c r="D41" s="80">
+        <v>40</v>
+      </c>
+      <c r="E41" s="80">
+        <v>30</v>
+      </c>
+      <c r="F41" s="3">
+        <v>113031040</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>533</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R41" s="3">
+        <v>250</v>
+      </c>
+      <c r="S41" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T41" s="3">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
+        <v>35</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W41" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>280</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE41" s="82"/>
+    </row>
+    <row r="42" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="79">
+        <v>14</v>
+      </c>
+      <c r="C42" s="79">
+        <v>32</v>
+      </c>
+      <c r="D42" s="79">
+        <v>41</v>
+      </c>
+      <c r="E42" s="79">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3">
+        <v>114032041</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R42" s="3">
+        <v>250</v>
+      </c>
+      <c r="S42" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T42" s="3">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
+        <v>35</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W42" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>280</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE42" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="15" customHeight="1" thickBot="1">
+      <c r="A43" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="79">
         <v>15</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C43" s="80">
+        <v>33</v>
+      </c>
+      <c r="D43" s="80">
+        <v>42</v>
+      </c>
+      <c r="E43" s="80">
+        <v>32</v>
+      </c>
+      <c r="F43" s="3">
+        <v>114033042</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R43" s="3">
+        <v>250</v>
+      </c>
+      <c r="S43" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T43" s="3">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
+        <v>35</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W43" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>280</v>
+      </c>
+      <c r="AC43" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="46">
-        <v>31</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="3">
-        <v>103021028</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="16" thickBot="1">
-      <c r="A33" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="B33" s="46">
-        <v>15</v>
-      </c>
-      <c r="C33" s="46">
-        <v>1</v>
-      </c>
-      <c r="D33" s="46">
-        <v>32</v>
-      </c>
-      <c r="E33" s="46">
-        <v>21</v>
-      </c>
-      <c r="F33" s="3">
-        <v>103021028</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="AD43" s="3">
+        <v>20</v>
+      </c>
+      <c r="AE43" s="84"/>
+    </row>
+    <row r="44" spans="1:31" ht="15" customHeight="1"/>
+    <row r="45" spans="1:31" ht="15" customHeight="1"/>
+    <row r="46" spans="1:31" ht="15" customHeight="1"/>
+    <row r="47" spans="1:31" ht="15" customHeight="1"/>
+    <row r="48" spans="1:31" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7565,10 +9201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8DE422-8EA2-4BDE-9730-9DAC1D8E446B}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="U12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7578,1721 +9214,2292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="36" t="s">
-        <v>297</v>
+      <c r="Y1" s="33" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="8">
+        <v>250</v>
+      </c>
+      <c r="O2" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P2" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>40</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V2" s="8">
+        <v>254</v>
+      </c>
+      <c r="W2" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="X2" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="8">
         <v>250</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O3" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P3" s="8">
         <v>5</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q3" s="8">
         <v>40</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V2" s="3">
-        <v>254</v>
-      </c>
-      <c r="W2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="X2" s="3">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="R3" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="V3" s="8">
+        <v>250</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="42"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="3">
-        <v>250</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P3" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>40</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V3" s="3">
-        <v>250</v>
-      </c>
-      <c r="W3" s="3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="8">
         <v>250</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="8">
         <v>5</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="8">
         <v>40</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>395</v>
+      <c r="S4" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V4" s="3">
+        <v>387</v>
+      </c>
+      <c r="V4" s="8">
         <v>262</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="8">
         <v>1</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="8">
         <v>10</v>
       </c>
-      <c r="Y4" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="8">
+        <v>250</v>
+      </c>
+      <c r="O5" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P5" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>40</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="V5" s="8">
+        <v>275</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="42"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M6" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N6" s="8">
         <v>250</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O6" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P6" s="8">
         <v>5</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q6" s="8">
         <v>40</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V5" s="3">
-        <v>275</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="S6" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="V6" s="8">
+        <v>360</v>
+      </c>
+      <c r="W6" s="8">
         <v>1</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X6" s="8">
         <v>10</v>
       </c>
-      <c r="Y5" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="3">
-        <v>250</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>40</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V6" s="3">
-        <v>360</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y6" s="42"/>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H7" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="8">
         <v>250</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="8">
         <v>5</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="8">
         <v>40</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>395</v>
+      <c r="S7" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V7" s="3">
+        <v>387</v>
+      </c>
+      <c r="V7" s="8">
         <v>282</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="8">
         <v>1</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="8">
         <v>10</v>
       </c>
-      <c r="Y7" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y7" s="42"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="8">
         <v>250</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="8">
         <v>5</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="8">
         <v>40</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>395</v>
+      <c r="S8" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V8" s="3">
+        <v>387</v>
+      </c>
+      <c r="V8" s="8">
         <v>360</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="8">
         <v>1</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="8">
         <v>10</v>
       </c>
-      <c r="Y8" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y8" s="42"/>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="8">
+        <v>250</v>
+      </c>
+      <c r="O9" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P9" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>30</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="3">
-        <v>250</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P9" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>30</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="U9" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V9" s="8">
         <v>254</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="8">
         <v>1</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="8">
         <v>20</v>
       </c>
-      <c r="Y9" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y9" s="42"/>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="38" t="s">
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="8">
         <v>250</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="8">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="8">
         <v>30</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T10" s="38" t="s">
+      <c r="S10" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T10" s="35" t="s">
         <v>206</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="V10" s="3">
+        <v>410</v>
+      </c>
+      <c r="V10" s="8">
         <v>280</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="8">
         <v>1</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="8">
         <v>10</v>
       </c>
-      <c r="Y10" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y10" s="42"/>
     </row>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="8">
         <v>150</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="S11" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="U11" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="X11" s="3">
+      <c r="U11" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="X11" s="8">
         <v>10</v>
       </c>
-      <c r="Y11" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y11" s="42"/>
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="12">
         <v>150</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="12">
         <v>5</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="12">
         <v>30</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="S12" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="R12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="T12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="U12" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="V12" s="12">
         <v>278</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="12">
         <v>1</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="12">
         <v>10</v>
       </c>
-      <c r="Y12" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y12" s="42"/>
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="8">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="12">
         <v>150</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="12">
         <v>5</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="12">
         <v>35</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="U13" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="V13" s="3">
+      <c r="S13" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="V13" s="12">
         <v>285</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="12">
         <v>1</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="12">
         <v>10</v>
       </c>
-      <c r="Y13" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y13" s="42"/>
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="12">
         <v>150</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="12">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="12">
         <v>35</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="S14" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V14" s="12">
         <v>280</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="12">
         <v>1</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="12">
         <v>10</v>
       </c>
-      <c r="Y14" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y14" s="42"/>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="12">
         <v>250</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="12">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="12">
         <v>30</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="R15" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="S15" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V15" s="12">
         <v>280</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="12">
         <v>1</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="12">
         <v>10</v>
       </c>
-      <c r="Y15" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y15" s="42"/>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="L16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="12">
         <v>250</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="12">
         <v>5</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="12">
         <v>30</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>246</v>
+      <c r="S16" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="V16" s="3">
+        <v>410</v>
+      </c>
+      <c r="V16" s="12">
         <v>274</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="12">
         <v>1</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="12">
         <v>10</v>
       </c>
-      <c r="Y16" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y16" s="42"/>
     </row>
     <row r="17" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="8">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="8">
         <v>250</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="8">
         <v>5</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="8">
         <v>30</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>265</v>
+      <c r="T17" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="V17" s="3">
+        <v>403</v>
+      </c>
+      <c r="V17" s="12">
         <v>280</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="12">
         <v>0.7</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="8">
         <v>2</v>
       </c>
-      <c r="Y17" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y17" s="42"/>
     </row>
     <row r="18" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="8">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="8">
         <v>250</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="8">
         <v>5</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="3" t="s">
+      <c r="Q18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="T18" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="S18" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="U18" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V18" s="8">
         <v>210</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="8">
         <v>0.8</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="X18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="42"/>
     </row>
     <row r="19" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="38" t="s">
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="69" t="s">
         <v>448</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="8">
         <v>250</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="8">
         <v>5</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="69">
         <v>25</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="T19" s="38" t="s">
+      <c r="S19" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T19" s="35" t="s">
         <v>137</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V19" s="3">
+        <v>387</v>
+      </c>
+      <c r="V19" s="8">
         <v>280</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="8">
         <v>1</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="8">
         <v>10</v>
       </c>
-      <c r="Y19" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y19" s="42"/>
     </row>
     <row r="20" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="8">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="14" t="s">
+      <c r="L20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="8">
         <v>250</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="8">
         <v>5</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="6">
         <v>30</v>
       </c>
-      <c r="R20" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="T20" s="38" t="s">
+      <c r="R20" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="T20" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="U20" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V20" s="8">
         <v>280</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="8">
         <v>1</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="8">
         <v>10</v>
       </c>
-      <c r="Y20" s="46" t="s">
-        <v>452</v>
-      </c>
+      <c r="Y20" s="42"/>
     </row>
     <row r="21" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="38" t="s">
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I21" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="8">
         <v>250</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="8">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="8">
         <v>40</v>
       </c>
-      <c r="R21" s="38" t="s">
+      <c r="R21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="V21" s="8">
+        <v>265</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="42"/>
+    </row>
+    <row r="22" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="86" t="s">
+        <v>536</v>
+      </c>
+      <c r="B22" s="87">
+        <v>21</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N23" s="3">
+        <v>250</v>
+      </c>
+      <c r="O23" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>20</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="T21" s="38" t="s">
+      <c r="V23" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="90" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>540</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="N24" s="3">
+        <v>250</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>30</v>
+      </c>
+      <c r="R24" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V21" s="3">
-        <v>265</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="S24" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="V24" s="19">
+        <v>230</v>
+      </c>
+      <c r="W24" s="3">
         <v>1</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X24" s="19">
         <v>10</v>
       </c>
-      <c r="Y21" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="B22" s="20">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="2"/>
+    </row>
+    <row r="25" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="91" t="s">
+        <v>542</v>
+      </c>
+      <c r="B25" s="92">
+        <v>24</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>542</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="H25" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="J25" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="K25" s="92" t="s">
+        <v>494</v>
+      </c>
+      <c r="L25" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="92" t="s">
+        <v>495</v>
+      </c>
+      <c r="N25" s="92">
+        <v>250</v>
+      </c>
+      <c r="O25" s="92">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P25" s="92">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="92">
+        <v>25</v>
+      </c>
+      <c r="R25" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="S25" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>498</v>
+      </c>
+      <c r="U25" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="V25" s="96">
+        <v>203</v>
+      </c>
+      <c r="W25" s="92">
+        <v>1</v>
+      </c>
+      <c r="X25" s="92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="N26" s="3">
+        <v>250</v>
+      </c>
+      <c r="O26" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P26" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>30</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="S26" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="V26" s="11">
+        <v>243</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="97" t="s">
+        <v>545</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="69" t="s">
+        <v>546</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="3">
+        <v>250</v>
+      </c>
+      <c r="O27" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P27" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>30</v>
+      </c>
+      <c r="R27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="T27" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="V27" s="18">
+        <v>250</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X27" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="91" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" s="98">
+        <v>27</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="H28" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="100" t="s">
+        <v>518</v>
+      </c>
+      <c r="J28" s="98" t="s">
+        <v>504</v>
+      </c>
+      <c r="K28" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="L28" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="101" t="s">
+        <v>520</v>
+      </c>
+      <c r="N28" s="92">
+        <v>250</v>
+      </c>
+      <c r="O28" s="92">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P28" s="92">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="92">
+        <v>30</v>
+      </c>
+      <c r="R28" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="S28" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="T28" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="V28" s="92">
+        <v>254</v>
+      </c>
+      <c r="W28" s="92">
+        <v>1</v>
+      </c>
+      <c r="X28" s="92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="91" t="s">
+        <v>548</v>
+      </c>
+      <c r="B29" s="98">
+        <v>28</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>524</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="96" t="s">
+        <v>525</v>
+      </c>
+      <c r="J29" s="92" t="s">
+        <v>526</v>
+      </c>
+      <c r="K29" s="98" t="s">
+        <v>527</v>
+      </c>
+      <c r="L29" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="92" t="s">
+        <v>528</v>
+      </c>
+      <c r="N29" s="96">
+        <v>150</v>
+      </c>
+      <c r="O29" s="96">
+        <v>3.9</v>
+      </c>
+      <c r="P29" s="96">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="92">
+        <v>27</v>
+      </c>
+      <c r="R29" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="S29" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="T29" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="U29" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="V29" s="96">
+        <v>230</v>
+      </c>
+      <c r="W29" s="96">
+        <v>1</v>
+      </c>
+      <c r="X29" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="B30" s="98">
+        <v>29</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>549</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="102" t="s">
+        <v>550</v>
+      </c>
+      <c r="B31" s="98">
+        <v>30</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>550</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="102" t="s">
+        <v>551</v>
+      </c>
+      <c r="B32" s="98">
+        <v>31</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>551</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="102" t="s">
+        <v>552</v>
+      </c>
+      <c r="B33" s="103">
+        <v>32</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9305,129 +11512,129 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
         <v>298</v>
-      </c>
-      <c r="B1" t="s">
-        <v>299</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="44">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="40">
         <v>15</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="45">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="41">
         <v>15</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="45">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="41">
         <v>15</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="40">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="45">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="41">
         <v>15</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="40">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="45">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="41">
         <v>15</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
-      <c r="A7" s="45">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="41">
         <v>15</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1">
-      <c r="A8" s="45">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="41">
         <v>15</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="45">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="41">
         <v>15</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="40">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="45">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="41">
         <v>15</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="40">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
-      <c r="A11" s="45">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="41">
         <v>15</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="40">
         <v>14</v>
       </c>
     </row>
